--- a/biology/Botanique/Bouturage/Bouturage.xlsx
+++ b/biology/Botanique/Bouturage/Bouturage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouturage est un  mode de multiplication végétative de certaines plantes, consistant à donner naissance à un nouvel individu à partir d'un organe ou d'un fragment d'organe isolé (morceau de rameau, feuille, racine, tige, écaille de bulbe).
 Avec le bouturage, il y a d'abord séparation de l'organe végétatif, puis enracinement ; à la différence du marcottage où, cette fois, il y a enracinement puis séparation de l'organe végétatif.
@@ -514,7 +526,9 @@
           <t>Types de bouture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs types de bouture :
 la bouture herbacée : se pratique sur des plantes non ligneuses souvent en fin d'été ;
@@ -524,7 +538,7 @@
 la bouture à bois sec : se pratique sur rameaux dormant en hiver, notamment chez les arbres et arbustes à feuillage caduc. Tout le bois est dur ;
 la bouture à l’étouffée : elle se pratique à n’importe quelle période mais en mettant la bouture sous cloche de verre (ou enfermée dans une grosse bouteille ou un sac plastique transparent à défaut) pour conserver un taux d’humidité proche de 100 %. Il est nécessaire d'aérer régulièrement (environ une fois par semaine) pour éviter les problèmes de pourrissement. La technique de l’étouffée améliore significativement la reprise des boutures en évitant qu’elles ne s’assèchent. Lorsqu'on la pratique en fin d'été, on a simultanément de la chaleur et une forte humidité donc un excellent taux de réussite ;
 la bouture de feuille : se pratique avec une feuille de coleus, bégonia, kalanchoé, etc., que l’on pose face sur le substrat et dont on sectionne les nervures principales ; on évite d'arroser excessivement pour empêcher la pourriture de la bouture.
-Pour les boutures sur des espèces difficiles à bouturer, on conseille de pratiquer un garrot sous un œil avec un fil de fer quelques jours avant de prélever la bouture. Cela permet d'accumuler de l'auxine naturellement au niveau de la coupe de la bouture, ce qui favorise la reprise[1].
+Pour les boutures sur des espèces difficiles à bouturer, on conseille de pratiquer un garrot sous un œil avec un fil de fer quelques jours avant de prélever la bouture. Cela permet d'accumuler de l'auxine naturellement au niveau de la coupe de la bouture, ce qui favorise la reprise.
 À ce propos, contrairement à une croyance populaire du fait de son faible taux de succès par les méthodes conventionnelles, les prunus (pêcher, nectarine, cerisier, pruniers...) peuvent être bouturés avec un peu de technique. Il conviendra de stranguler avec du fil métallique de faible section (sans blesser l'écorce), quelques centimètres sous un bourgeon foliaire, une nouvelle pousse de l'année dans un été semi-aoûté, durant une semaine, afin de bloquer la circulation de la sève descendante.
 De par la photosynthèse, les feuilles produisent de l'auxine, une hormone rhizogenèse favorisant l’apparition de racine, la strangulation permet de bloquer cette dernière au maximum sous le bourgeon foliaire afin de favoriser leur développement.
 Après une semaine et une forte accumulation de cette hormone, couper avec un sécateur la pousse choisie, en dessous de la strangulation, et, avec un couteau bien affûté et désinfecté, entre le bourgeon foliaire et le fil (au plus près).
@@ -561,7 +575,9 @@
           <t>Adaptation au mode de reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les végétaux à reproduction sexuée bouturés sur de nombreuses générations perdent progressivement leurs facultés reproductrices sexuées (devenue accessoire) générant de moins en moins de dépenses dans cette direction (pollen, nectar, fruit) au profit d'une plus grande vigueur végétative (devenue essentielle et comprise comme vitale).
 De nombreux exemples nous montrent des végétaux ayant totalement perdu les facultés sexuées, leur pérennité dépend aujourd'hui exclusivement de la main humaine.
@@ -593,7 +609,9 @@
           <t>Quand bouturer ?</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La période de bouture dépend de l'espèce choisie, du type de bouture et de l'utilisation voulue. Pour la plupart, les boutures sont plus réussies quand elles sont pratiquées en début de période de croissance de la plante.
 Début juin est une bonne période (dans l'hémisphère nord) pour des boutures de feuillus (érable, orme, azalée). Prendre des pousses de l’année dont la base commence à s'aoûter, compter cinq ou six feuilles à partir de la base, plonger la base dans une hormone de bouturage (auxine) et les mettre à l’étouffée dans une mini-serre (faite avec une bouteille de plastique par exemple).
@@ -628,7 +646,9 @@
           <t>Comment bouturer ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On sélectionne un fragment d'un jeune rameau ligneux ou herbacé (non fleuri) d'au moins dix à quinze cm de long comportant au moins 3 nœuds (pour certaines espèces, on peut même simplement prendre une feuille ou un morceau de racine) et on le sectionne (avec un sécateur bien propre et bien aiguisé) juste sous un nœud ou avec un talon  (car c'est à ces endroits que les racines émergent le plus facilement). On taille toutes les feuilles du rameau à l'exception de deux ou trois au sommet (technique de l'« habillage ») pour éviter une trop grande transpiration du plant qui n'a plus de racines pour s'hydrater. Ne jamais laisser le bourgeon terminal de la branche afin que, lors du départ en végétation, ce soit la formation des racines qui soit privilégiée et non celle de la tige.
 On enterre ensuite rapidement (pour éviter qu'il ne se dessèche) le rameau des 2/3 de sa longueur par le côté coupé comportant une zone favorable à la rhizogenèse dans un substrat bien drainé pour éviter le pourrissement. Ce substrat peut être de la terre mélangée à du sable grossier ou bien même un simple récipient rempli d'eau (mais cela peut causer des problèmes lors du transfert en terre). On utilisera de préférence des pots en terre cuite et on placera les boutures sur les bords du pot car, les parois emmagasinant et conservant la chaleur, cela favorise l'émission de racines.
@@ -661,10 +681,12 @@
           <t>Hormone de bouturage</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour accroître ses chances de réussite, on peut utiliser une hormone de bouturage, l'auxine, qui stimule la rhizogenèse (l'apparition de racines sur les tiges et autres organes).
-D'autres substances telles que le miel ou le lait de coco[2] sont également parfois utilisées pour faciliter le développement des racines (pour le lait de coco, jus issu du travail de la pulpe de coco, mélanger 5/6 d'eau et 1/6 de lait de coco, pour l'eau de coco, le liquide dans la noix, mélanger 2/3 d'eau et 1/3 d'eau de coco). La cannelle est parfois également conseillée pour faciliter le bouturage. Elle ne contient pas d'auxine mais ses propriétés bactéricides et fongicides évitent à la bouture de s'infecter avant d'avoir le temps de raciner. On recommande également de toujours mettre au moins 2 ou 3 boutures de la même plante dans un même pot, cela multiplie les chances de réussite d'autant et on peut toujours se débarrasser des boutures les moins réussies au moment du transplantage.
+D'autres substances telles que le miel ou le lait de coco sont également parfois utilisées pour faciliter le développement des racines (pour le lait de coco, jus issu du travail de la pulpe de coco, mélanger 5/6 d'eau et 1/6 de lait de coco, pour l'eau de coco, le liquide dans la noix, mélanger 2/3 d'eau et 1/3 d'eau de coco). La cannelle est parfois également conseillée pour faciliter le bouturage. Elle ne contient pas d'auxine mais ses propriétés bactéricides et fongicides évitent à la bouture de s'infecter avant d'avoir le temps de raciner. On recommande également de toujours mettre au moins 2 ou 3 boutures de la même plante dans un même pot, cela multiplie les chances de réussite d'autant et on peut toujours se débarrasser des boutures les moins réussies au moment du transplantage.
 </t>
         </is>
       </c>
@@ -693,10 +715,12 @@
           <t>Espèces faciles à bouturer</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Certaines espèces se bouturent plus facilement que d'autres, en effet le bouturage s'applique tout particulièrement aux plantes vivaces et par exemple :
-le saule est, sans aucun doute, l'une des espèces de végétaux les plus faciles à bouturer. On peut sans problème bouturer une branche de plusieurs centimètres de diamètre (ces grosses boutures sont appelées « plançon » ou « plantard »)[3]. Prenant aisément racine, on appelle parfois le saule « la mauvaise herbe ». L'eau de saule est utilisée comme auxine naturelle ;
+le saule est, sans aucun doute, l'une des espèces de végétaux les plus faciles à bouturer. On peut sans problème bouturer une branche de plusieurs centimètres de diamètre (ces grosses boutures sont appelées « plançon » ou « plantard »). Prenant aisément racine, on appelle parfois le saule « la mauvaise herbe ». L'eau de saule est utilisée comme auxine naturelle ;
 l'olivier se reproduit facilement à partir de bout de souche ;
 les cactacées se bouturent aussi très facilement à partir d'une simple « feuille ». Le bouturage des petits cactus est à recommander aux débutants ;
 parmi les arbres fruitiers, les figuiers, les groseilliers et la vigne sont connus pour se bouturer facilement ;
@@ -728,9 +752,11 @@
           <t>Espèces diverses pouvant être bouturées</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>l'arganier dont les tests de bouturage se sont avérés efficaces et sont conseillés pour la propagation de sujets ayant des caractères désirables pour la regarnies de zone déboisées ou dégradées [4].</t>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>l'arganier dont les tests de bouturage se sont avérés efficaces et sont conseillés pour la propagation de sujets ayant des caractères désirables pour la regarnies de zone déboisées ou dégradées .</t>
         </is>
       </c>
     </row>
@@ -758,7 +784,9 @@
           <t>Comparaison entre bouture et greffage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouturage et le greffage permettent tous deux de reproduire une plante à l'identique à la différence du semis qui lui perpétue l'espèce mais en croisant le patrimoine génétique des parents dans leur descendance (donc en donnant un phénotype distinct).
 Le bouturage est plutôt utilisé par les amateurs car il est beaucoup plus simple à réaliser que le greffage et ne nécessite aucun matériel particulier. Son seul inconvénient est d'être souvent plus lent à produire des fruits ou des fleurs. De plus, certaines variétés ne se bouturent pas du tout ou très difficilement.
@@ -791,13 +819,15 @@
           <t>Légalité du bouturage</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, il est interdit de bouturer sans licence à titre commercial un cultivar disposant d'un certificat d'obtention végétale. Mais selon l'article L. 623-4-1 du code de la propriété intellectuelle, le droit du titulaire (d'un certificat d'obtention végétale) ne s'étend pas : 
 Aux actes accomplis à titre privé à des fins non professionnelles ou non commerciales ;
 Aux actes accomplis à titre expérimental ;
 Aux actes accomplis aux fins de la création d'une nouvelle variété...
-Il est donc tout à fait légal de bouturer à titre privé sans intention de commercialiser ses boutures[5].
+Il est donc tout à fait légal de bouturer à titre privé sans intention de commercialiser ses boutures.
 </t>
         </is>
       </c>
